--- a/Aydın,TR_House_Price/aydın_house_price.xlsx
+++ b/Aydın,TR_House_Price/aydın_house_price.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilker\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilker\Documents\GitHub\Aydin-Tr_House_Price\Aydın,TR_House_Price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D0AC61-3AB2-4293-B194-A175ADDA5669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F5F4C6-6A7B-40BF-9454-B5AED195CBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="5175" windowWidth="17775" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17880" yWindow="0" windowWidth="19830" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>1.500.000 TL</t>
   </si>
@@ -112,6 +112,78 @@
   </si>
   <si>
     <t>Eşyalı Değil</t>
+  </si>
+  <si>
+    <t>Ay</t>
+  </si>
+  <si>
+    <t>Dolar</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Altın</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Beton</t>
+  </si>
+  <si>
+    <t>Demir</t>
+  </si>
+  <si>
+    <t>Fiyat</t>
+  </si>
+  <si>
+    <t>Son Güncelleme Tarihi</t>
+  </si>
+  <si>
+    <t>Konut Tipi</t>
+  </si>
+  <si>
+    <t>Mahalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Net M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oda </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salon Sayısı</t>
+  </si>
+  <si>
+    <t>Bulunduğu Kat</t>
+  </si>
+  <si>
+    <t>Bina Yaşı</t>
+  </si>
+  <si>
+    <t>Isınma Tipi</t>
+  </si>
+  <si>
+    <t>Eşya Durumu</t>
+  </si>
+  <si>
+    <t>Banyo Sayısı</t>
+  </si>
+  <si>
+    <t>Cephe</t>
+  </si>
+  <si>
+    <t>Kira Getirisi</t>
+  </si>
+  <si>
+    <t>Kullanım Durumu</t>
+  </si>
+  <si>
+    <t>Aidat</t>
+  </si>
+  <si>
+    <t>Yakıt Tipi</t>
   </si>
 </sst>
 </file>
@@ -190,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -200,6 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,209 +553,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>29.395700000000001</v>
-      </c>
-      <c r="C1" s="2">
-        <v>32.706099999999999</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1966.77</v>
-      </c>
-      <c r="E1" s="2">
-        <v>80.19</v>
-      </c>
-      <c r="F1" s="2">
-        <v>1900</v>
-      </c>
-      <c r="G1" s="2">
-        <v>21939.81</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3">
-        <v>45286</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2">
-        <v>95</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2">
-        <v>1</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="2">
-        <v>1</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="4" t="s">
-        <v>9</v>
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>29.395700000000001</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="2">
         <v>32.706099999999999</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>1966.77</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>80.19</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>1900</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="2">
         <v>21939.81</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
         <v>45286</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="6">
-        <v>50</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="L2" s="2">
+        <v>95</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="6">
-        <v>1</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>17</v>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>29.395700000000001</v>
+      </c>
+      <c r="C3" s="6">
+        <v>32.706099999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1966.77</v>
+      </c>
+      <c r="E3" s="6">
+        <v>80.19</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G3" s="6">
+        <v>21939.81</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7">
+        <v>45286</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>29.840299999999999</v>
-      </c>
-      <c r="C3" s="6">
-        <v>32.680100000000003</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1960.79</v>
-      </c>
-      <c r="E3" s="6">
-        <v>78.760000000000005</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2100</v>
-      </c>
-      <c r="G3" s="6">
-        <v>22829.17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7">
-        <v>45256</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="L3" s="6">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="6">
         <v>1</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>6</v>
@@ -691,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>14</v>
@@ -700,132 +776,140 @@
         <v>15</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>29.840299999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>32.680100000000003</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>1960.79</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>78.760000000000005</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>2100</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>22829.17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>45256</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="6">
         <v>62</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="M4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="2">
-        <v>1</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>22</v>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>31.123100000000001</v>
+        <v>29.840299999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>33.792700000000004</v>
+        <v>32.680100000000003</v>
       </c>
       <c r="D5" s="2">
-        <v>2033.63</v>
+        <v>1960.79</v>
       </c>
       <c r="E5" s="2">
-        <v>80.58</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="F5" s="2">
         <v>2100</v>
       </c>
       <c r="G5" s="2">
-        <v>23638.43</v>
+        <v>22829.17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3">
-        <v>45347</v>
+        <v>45256</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
-        <v>60</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
       <c r="O5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="S5" s="2">
         <v>1</v>
@@ -843,77 +927,155 @@
         <v>22</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>31.123100000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>33.792700000000004</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>2033.63</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>80.58</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>2100</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="2">
         <v>23638.43</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>45347</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="2">
         <v>60</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
+      <c r="M6" s="6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>22</v>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>31.123100000000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>33.792700000000004</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2033.63</v>
+      </c>
+      <c r="E7" s="6">
+        <v>80.58</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2100</v>
+      </c>
+      <c r="G7" s="6">
+        <v>23638.43</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7">
+        <v>45347</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="6">
+        <v>60</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
